--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-77238.13426771895</v>
+        <v>-86090.19519383951</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30133877.59168269</v>
+        <v>30622858.50295511</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.9934074</v>
+        <v>15281170.21749553</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2066781.202317923</v>
+        <v>1973832.770522356</v>
       </c>
     </row>
     <row r="11">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5.381886764656974</v>
       </c>
       <c r="C20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="E20" t="n">
-        <v>424.2958575201043</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>87.77541903858065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>94.13938596491228</v>
+        <v>5.381886764656974</v>
       </c>
       <c r="E21" t="n">
-        <v>93.17921052631581</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="F21" t="n">
-        <v>82.55</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="G21" t="n">
-        <v>84.53123883647795</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="H21" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2242,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>91.6960682429015</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>5.381886764656974</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>6.110225663779488</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
-        <v>46.68188763447793</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>158.4069999341505</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H24" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.2617428421383</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,10 +2541,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>201.6940717218502</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>332.9207406456938</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H27" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>42.23871992329127</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>46.95000492031151</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,10 +2800,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E29" t="n">
-        <v>374.4268935289278</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>323.1063928328358</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>93.634724982124</v>
       </c>
       <c r="X31" t="n">
-        <v>169.5802855568755</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3041,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>67.65538200560648</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3092,10 +3094,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>43.25884065436964</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3125,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>84.25946548084337</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>241.4000435770619</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.68188763447793</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3326,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>123.775493226393</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H36" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T36" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8768572327043</v>
       </c>
       <c r="U36" t="n">
         <v>174.5731815300314</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>41.64881018662521</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>123.9914721956664</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>405.0038663550051</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>264.5484424901697</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>26.28298851191809</v>
       </c>
       <c r="I40" t="n">
-        <v>1.291583304551557</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>43.90029793537723</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>70.66580750658341</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>81.85021358836512</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>163.9235720099854</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>162.9730757900811</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4.176711216045566</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1608.521390647508</v>
+        <v>19.00465339788868</v>
       </c>
       <c r="C20" t="n">
-        <v>1179.939716384776</v>
+        <v>19.00465339788868</v>
       </c>
       <c r="D20" t="n">
-        <v>1179.939716384776</v>
+        <v>12.83270828295991</v>
       </c>
       <c r="E20" t="n">
-        <v>751.3580421220443</v>
+        <v>6.660763168031135</v>
       </c>
       <c r="F20" t="n">
-        <v>323.4906125312521</v>
+        <v>6.660763168031135</v>
       </c>
       <c r="G20" t="n">
-        <v>323.4906125312521</v>
+        <v>6.660763168031135</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="I20" t="n">
-        <v>33.94366860160834</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="J20" t="n">
-        <v>437.0247332457074</v>
+        <v>6.537941460244052</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0247332457074</v>
+        <v>6.537941460244052</v>
       </c>
       <c r="L20" t="n">
-        <v>437.0247332457074</v>
+        <v>6.537941460244052</v>
       </c>
       <c r="M20" t="n">
-        <v>437.0247332457074</v>
+        <v>6.537941460244052</v>
       </c>
       <c r="N20" t="n">
-        <v>437.0247332457074</v>
+        <v>6.537941460244052</v>
       </c>
       <c r="O20" t="n">
-        <v>857.0776321906106</v>
+        <v>6.537941460244052</v>
       </c>
       <c r="P20" t="n">
-        <v>1277.130531135514</v>
+        <v>12.34265584083457</v>
       </c>
       <c r="Q20" t="n">
-        <v>1697.183430080417</v>
+        <v>18.39177924797626</v>
       </c>
       <c r="R20" t="n">
-        <v>1697.183430080417</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="Y20" t="n">
-        <v>1608.521390647508</v>
+        <v>24.44090265511795</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>540.1154135929012</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295435</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="D21" t="n">
-        <v>338.5686635760967</v>
+        <v>19.00465339788868</v>
       </c>
       <c r="E21" t="n">
-        <v>244.4482489030504</v>
+        <v>12.83270828295991</v>
       </c>
       <c r="F21" t="n">
-        <v>161.0644105192121</v>
+        <v>6.660763168031135</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539593</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="H21" t="n">
-        <v>33.94366860160834</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="I21" t="n">
-        <v>60.00734176206595</v>
+        <v>6.293532433692873</v>
       </c>
       <c r="J21" t="n">
-        <v>384.5656667282782</v>
+        <v>6.293532433692873</v>
       </c>
       <c r="K21" t="n">
-        <v>739.9048540962709</v>
+        <v>6.293532433692873</v>
       </c>
       <c r="L21" t="n">
-        <v>739.9048540962709</v>
+        <v>6.293532433692873</v>
       </c>
       <c r="M21" t="n">
-        <v>739.9048540962709</v>
+        <v>6.293532433692873</v>
       </c>
       <c r="N21" t="n">
-        <v>739.9048540962709</v>
+        <v>6.293532433692873</v>
       </c>
       <c r="O21" t="n">
-        <v>739.9048540962709</v>
+        <v>6.293532433692873</v>
       </c>
       <c r="P21" t="n">
-        <v>1159.957753041174</v>
+        <v>12.34265584083457</v>
       </c>
       <c r="Q21" t="n">
-        <v>1580.010651986078</v>
+        <v>18.39177924797626</v>
       </c>
       <c r="R21" t="n">
-        <v>1697.183430080417</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="S21" t="n">
-        <v>1633.7279925288</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="T21" t="n">
-        <v>1503.549348859402</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="U21" t="n">
-        <v>1327.21280185937</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="V21" t="n">
-        <v>1128.09528392137</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="W21" t="n">
-        <v>942.7725296545636</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="X21" t="n">
-        <v>787.9050938934436</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="Y21" t="n">
-        <v>661.4193146726643</v>
+        <v>24.44090265511795</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>682.0221647221273</v>
+        <v>12.83270828295991</v>
       </c>
       <c r="C22" t="n">
-        <v>682.0221647221273</v>
+        <v>12.83270828295991</v>
       </c>
       <c r="D22" t="n">
-        <v>516.14417192365</v>
+        <v>6.660763168031135</v>
       </c>
       <c r="E22" t="n">
-        <v>516.14417192365</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="F22" t="n">
-        <v>339.4371178854062</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="G22" t="n">
-        <v>173.8458429112338</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="H22" t="n">
-        <v>33.94366860160834</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="I22" t="n">
-        <v>33.94366860160834</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5233537662982</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="K22" t="n">
-        <v>395.2818083374338</v>
+        <v>0.488818053102359</v>
       </c>
       <c r="L22" t="n">
-        <v>813.4916901053949</v>
+        <v>6.293532433692873</v>
       </c>
       <c r="M22" t="n">
-        <v>1181.483761245743</v>
+        <v>6.293532433692873</v>
       </c>
       <c r="N22" t="n">
-        <v>1181.483761245743</v>
+        <v>6.293532433692873</v>
       </c>
       <c r="O22" t="n">
-        <v>1181.483761245743</v>
+        <v>12.34265584083457</v>
       </c>
       <c r="P22" t="n">
-        <v>1528.990655216085</v>
+        <v>18.39177924797626</v>
       </c>
       <c r="Q22" t="n">
-        <v>1697.183430080417</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="S22" t="n">
-        <v>1537.942061378414</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="T22" t="n">
-        <v>1292.062614956869</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="U22" t="n">
-        <v>1292.062614956869</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="V22" t="n">
-        <v>1199.440323802423</v>
+        <v>24.44090265511795</v>
       </c>
       <c r="W22" t="n">
-        <v>927.4139193887148</v>
+        <v>19.00465339788868</v>
       </c>
       <c r="X22" t="n">
-        <v>682.0221647221273</v>
+        <v>19.00465339788868</v>
       </c>
       <c r="Y22" t="n">
-        <v>682.0221647221273</v>
+        <v>12.83270828295991</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>771.6250763881362</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="C23" t="n">
-        <v>771.6250763881362</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D23" t="n">
-        <v>771.6250763881362</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E23" t="n">
-        <v>771.6250763881362</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F23" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G23" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
         <v>687.9235674375537</v>
@@ -6014,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U23" t="n">
-        <v>1134.24202645431</v>
+        <v>1317.1091323129</v>
       </c>
       <c r="V23" t="n">
-        <v>771.6250763881362</v>
+        <v>1317.1091323129</v>
       </c>
       <c r="W23" t="n">
-        <v>771.6250763881362</v>
+        <v>1317.1091323129</v>
       </c>
       <c r="X23" t="n">
-        <v>771.6250763881362</v>
+        <v>1317.1091323129</v>
       </c>
       <c r="Y23" t="n">
-        <v>771.6250763881362</v>
+        <v>1317.1091323129</v>
       </c>
     </row>
     <row r="24">
@@ -6045,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6054,34 +6056,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.94366860160834</v>
+        <v>419.1124060907378</v>
       </c>
       <c r="C25" t="n">
-        <v>33.94366860160834</v>
+        <v>246.5506945739627</v>
       </c>
       <c r="D25" t="n">
-        <v>33.94366860160834</v>
+        <v>80.67270177548542</v>
       </c>
       <c r="E25" t="n">
         <v>33.94366860160834</v>
@@ -6145,19 +6147,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K25" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L25" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M25" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N25" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O25" t="n">
         <v>1181.483761245743</v>
@@ -6169,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T25" t="n">
-        <v>1292.062614956869</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U25" t="n">
-        <v>1013.629614209975</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V25" t="n">
-        <v>726.6741060804052</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W25" t="n">
-        <v>454.6477016666967</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X25" t="n">
-        <v>209.2559470001092</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.94366860160834</v>
+        <v>610.9310248097249</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>237.6750541792348</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C26" t="n">
-        <v>237.6750541792348</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D26" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E26" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G26" t="n">
         <v>33.94366860160834</v>
@@ -6227,19 +6229,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L26" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N26" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O26" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6251,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>1477.116202953456</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W26" t="n">
-        <v>1072.260748364489</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="X26" t="n">
-        <v>1072.260748364489</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="Y26" t="n">
-        <v>663.9746246641427</v>
+        <v>435.3414999783445</v>
       </c>
     </row>
     <row r="27">
@@ -6282,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6291,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6303,22 +6305,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K27" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L27" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M27" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N27" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O27" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>973.0996549038641</v>
+        <v>978.9601488351361</v>
       </c>
       <c r="C28" t="n">
-        <v>800.5379433870891</v>
+        <v>806.3984373183611</v>
       </c>
       <c r="D28" t="n">
-        <v>634.6599505886118</v>
+        <v>640.5204445198838</v>
       </c>
       <c r="E28" t="n">
-        <v>464.9019468393491</v>
+        <v>470.762440770621</v>
       </c>
       <c r="F28" t="n">
-        <v>288.1948928011053</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G28" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H28" t="n">
         <v>122.603617826933</v>
@@ -6418,16 +6420,16 @@
         <v>1537.942061378414</v>
       </c>
       <c r="V28" t="n">
-        <v>1490.51781398416</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="W28" t="n">
-        <v>1218.491409570452</v>
+        <v>978.9601488351361</v>
       </c>
       <c r="X28" t="n">
-        <v>973.0996549038641</v>
+        <v>978.9601488351361</v>
       </c>
       <c r="Y28" t="n">
-        <v>973.0996549038641</v>
+        <v>978.9601488351361</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1697.183430080417</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.601755817686</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D29" t="n">
-        <v>840.020081554954</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E29" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L29" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M29" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N29" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6491,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.183430080417</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.183430080417</v>
+        <v>891.5238064999317</v>
       </c>
     </row>
     <row r="30">
@@ -6519,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6528,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>947.4105542393174</v>
+        <v>372.0966550925557</v>
       </c>
       <c r="C31" t="n">
-        <v>774.8488427225424</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="D31" t="n">
-        <v>608.9708499240651</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E31" t="n">
-        <v>439.2128461748023</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F31" t="n">
-        <v>262.5057921365585</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G31" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L31" t="n">
-        <v>761.43086230084</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M31" t="n">
-        <v>1181.483761245743</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N31" t="n">
-        <v>1181.483761245743</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O31" t="n">
-        <v>1181.483761245743</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="P31" t="n">
-        <v>1528.990655216085</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6646,25 +6648,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.942061378414</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U31" t="n">
-        <v>1537.942061378414</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.942061378414</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W31" t="n">
-        <v>1537.942061378414</v>
+        <v>791.3349444974347</v>
       </c>
       <c r="X31" t="n">
-        <v>1366.648843644196</v>
+        <v>791.3349444974347</v>
       </c>
       <c r="Y31" t="n">
-        <v>1139.229172958305</v>
+        <v>563.9152738115429</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C32" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D32" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E32" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F32" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6698,19 +6700,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N32" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O32" t="n">
         <v>687.9235674375537</v>
@@ -6725,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>929.7110254252771</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X32" t="n">
-        <v>510.5685620045878</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.2824383042412</v>
+        <v>323.0738231583921</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6770,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6795,7 +6797,7 @@
         <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q33" t="n">
         <v>1580.010651986078</v>
@@ -6832,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>679.0856311019793</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="C34" t="n">
-        <v>593.9750599092082</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="D34" t="n">
-        <v>428.0970671107308</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E34" t="n">
-        <v>428.0970671107308</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F34" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G34" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L34" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M34" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N34" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O34" t="n">
-        <v>1233.160939331176</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
         <v>1528.990655216085</v>
@@ -6880,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T34" t="n">
-        <v>1429.886162364244</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U34" t="n">
-        <v>1429.886162364244</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V34" t="n">
-        <v>1142.930654234675</v>
+        <v>769.7911863543566</v>
       </c>
       <c r="W34" t="n">
-        <v>870.9042498209665</v>
+        <v>769.7911863543566</v>
       </c>
       <c r="X34" t="n">
-        <v>870.9042498209665</v>
+        <v>769.7911863543566</v>
       </c>
       <c r="Y34" t="n">
-        <v>870.9042498209665</v>
+        <v>542.3715156684648</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>724.4716545351282</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="C35" t="n">
-        <v>724.4716545351282</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D35" t="n">
-        <v>724.4716545351282</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E35" t="n">
-        <v>724.4716545351282</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F35" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6935,22 +6937,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K35" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L35" t="n">
-        <v>1107.976466382457</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M35" t="n">
-        <v>1107.976466382457</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N35" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
         <v>1107.976466382457</v>
@@ -6965,22 +6967,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U35" t="n">
-        <v>1134.24202645431</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V35" t="n">
-        <v>771.6250763881362</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W35" t="n">
-        <v>771.6250763881362</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X35" t="n">
-        <v>771.6250763881362</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="Y35" t="n">
-        <v>771.6250763881362</v>
+        <v>461.8110981924006</v>
       </c>
     </row>
     <row r="36">
@@ -7005,28 +7007,28 @@
         <v>161.064410519212</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J36" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K36" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L36" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M36" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O36" t="n">
         <v>1159.957753041174</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.2823514138177</v>
+        <v>682.043550975749</v>
       </c>
       <c r="C37" t="n">
-        <v>481.2823514138177</v>
+        <v>509.4818394589739</v>
       </c>
       <c r="D37" t="n">
-        <v>439.2128461748023</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="E37" t="n">
-        <v>439.2128461748023</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F37" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G37" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
@@ -7117,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1292.062614956869</v>
+        <v>1391.280328775032</v>
       </c>
       <c r="U37" t="n">
-        <v>1013.629614209975</v>
+        <v>1391.280328775032</v>
       </c>
       <c r="V37" t="n">
-        <v>726.6741060804052</v>
+        <v>1391.280328775032</v>
       </c>
       <c r="W37" t="n">
-        <v>726.6741060804052</v>
+        <v>1119.253924361324</v>
       </c>
       <c r="X37" t="n">
-        <v>481.2823514138177</v>
+        <v>873.8621696947362</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.2823514138177</v>
+        <v>873.8621696947362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>724.4716545351282</v>
+        <v>443.4552724744735</v>
       </c>
       <c r="C38" t="n">
-        <v>724.4716545351282</v>
+        <v>443.4552724744735</v>
       </c>
       <c r="D38" t="n">
-        <v>724.4716545351282</v>
+        <v>443.4552724744735</v>
       </c>
       <c r="E38" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F38" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G38" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H38" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7175,49 +7177,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O38" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P38" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q38" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R38" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V38" t="n">
-        <v>991.6923035150976</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W38" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X38" t="n">
-        <v>724.4716545351282</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y38" t="n">
-        <v>724.4716545351282</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="39">
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>859.7685167902448</v>
+        <v>745.110186124424</v>
       </c>
       <c r="C40" t="n">
-        <v>687.2068052734697</v>
+        <v>572.5484746076489</v>
       </c>
       <c r="D40" t="n">
-        <v>687.2068052734697</v>
+        <v>572.5484746076489</v>
       </c>
       <c r="E40" t="n">
-        <v>517.4488015242071</v>
+        <v>402.7904708583862</v>
       </c>
       <c r="F40" t="n">
-        <v>340.7417474859633</v>
+        <v>226.0834168201424</v>
       </c>
       <c r="G40" t="n">
-        <v>175.150472511791</v>
+        <v>60.49214184597005</v>
       </c>
       <c r="H40" t="n">
-        <v>35.24829820216547</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L40" t="n">
-        <v>813.4916901053949</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M40" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N40" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O40" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P40" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
@@ -7360,22 +7362,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T40" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U40" t="n">
-        <v>1418.750429333523</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V40" t="n">
-        <v>1131.794921203953</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W40" t="n">
-        <v>859.7685167902448</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="X40" t="n">
-        <v>859.7685167902448</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="Y40" t="n">
-        <v>859.7685167902448</v>
+        <v>936.9288048434112</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>908.266909529336</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="C41" t="n">
-        <v>863.9231742410761</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="D41" t="n">
-        <v>435.3414999783445</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="E41" t="n">
-        <v>435.3414999783445</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="F41" t="n">
-        <v>435.3414999783445</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J41" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K41" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L41" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N41" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O41" t="n">
         <v>687.9235674375537</v>
@@ -7451,10 +7453,10 @@
         <v>1334.566480014244</v>
       </c>
       <c r="X41" t="n">
-        <v>1334.566480014244</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y41" t="n">
-        <v>1334.566480014244</v>
+        <v>507.1378928932079</v>
       </c>
     </row>
     <row r="42">
@@ -7467,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7476,22 +7478,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I42" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J42" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K42" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L42" t="n">
         <v>1159.957753041174</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>433.2298803720686</v>
+        <v>707.7326516402958</v>
       </c>
       <c r="C43" t="n">
-        <v>350.5528969494776</v>
+        <v>535.1709401235207</v>
       </c>
       <c r="D43" t="n">
-        <v>350.5528969494776</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E43" t="n">
-        <v>350.5528969494776</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F43" t="n">
-        <v>173.8458429112338</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G43" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
         <v>33.94366860160834</v>
@@ -7567,22 +7569,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M43" t="n">
-        <v>813.4916901053949</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N43" t="n">
-        <v>813.4916901053949</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O43" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P43" t="n">
         <v>1528.990655216085</v>
@@ -7591,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1270.644793662241</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U43" t="n">
-        <v>992.2117929153466</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V43" t="n">
-        <v>705.2562847857771</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W43" t="n">
-        <v>433.2298803720686</v>
+        <v>1372.362695711762</v>
       </c>
       <c r="X43" t="n">
-        <v>433.2298803720686</v>
+        <v>1126.970941045175</v>
       </c>
       <c r="Y43" t="n">
-        <v>433.2298803720686</v>
+        <v>899.5512703592829</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>620.4838481711383</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>620.4838481711383</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>620.4838481711383</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>198.0741190233354</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.9849282099032</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1042.893577318941</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>214.3808048049776</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>355.1410140564474</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>769.144789594209</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>879.010848876444</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>633.6190942098565</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>406.1994235239648</v>
       </c>
     </row>
   </sheetData>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>407.152590549595</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>5.863347859182337</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>5.863347859182337</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="Q21" t="n">
-        <v>424.2958575201044</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>5.863347859182337</v>
       </c>
       <c r="M22" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O23" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -9711,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9808,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9875,10 +9877,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9951,25 +9953,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10109,14 +10111,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K29" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L29" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
@@ -10124,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O32" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10504,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>298.8178948332411</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K35" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L35" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -10659,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="N36" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L36" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10844,7 +10846,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9284720888814</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11215,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O43" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>126.0113343546819</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11470,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>346.0449349349548</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>416.6546880154017</v>
       </c>
       <c r="C20" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>425.4404613135204</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14113987318342</v>
+        <v>423.3267717295083</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>280.1286273474364</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>316.4278434247624</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>88.75749920025531</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>87.06898486253633</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>76.43977433622051</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>78.42101317269847</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="22">
@@ -24130,19 +24132,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>158.108987206713</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>161.9501980479906</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,25 +24177,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>192.3898848053723</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>263.9242536049144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>219.0352483152533</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -24212,19 +24214,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
-        <v>376.9068676604064</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>98.22307972200275</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>121.7986808696318</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>229.8566152554497</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24455,7 +24457,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>67.88615939738321</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>132.7012635745701</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>237.1359481279623</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -24686,10 +24688,10 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E29" t="n">
-        <v>55.01010386435991</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -24698,7 +24700,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>35.88438773267598</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>175.6714153874474</v>
       </c>
       <c r="X31" t="n">
-        <v>73.35755156304614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>329.7284710573622</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>371.6921981321128</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>86.57662892076394</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>42.68590947121194</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>375.3546871455808</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -25163,13 +25165,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25205,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>280.4277692369502</v>
       </c>
     </row>
     <row r="36">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>122.5704026838673</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>119.4291797616629</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25397,19 +25399,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>24.43313103828262</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>136.2584575529073</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>112.2201640546111</v>
       </c>
       <c r="I40" t="n">
-        <v>86.48176642851986</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>389.8607501530337</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>352.9229477883009</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>88.98588081324219</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>105.382568359586</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25874,16 +25876,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>233.0810430599699</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>166.6593831855618</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -26032,16 +26034,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373481.4544631602</v>
+        <v>5378.454508946897</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>373481.4544631602</v>
+        <v>373481.4544631601</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373481.4544631602</v>
+        <v>373481.4544631604</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>342817.7629166711</v>
       </c>
     </row>
   </sheetData>
@@ -26329,31 +26331,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>90151.75317155514</v>
+        <v>1298.26286564075</v>
       </c>
       <c r="I2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="J2" t="n">
+        <v>90151.75317155512</v>
+      </c>
+      <c r="K2" t="n">
         <v>90151.75317155513</v>
       </c>
-      <c r="K2" t="n">
-        <v>90151.75317155512</v>
-      </c>
       <c r="L2" t="n">
-        <v>90151.75317155512</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="M2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="N2" t="n">
-        <v>90151.75317155514</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="O2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>91292.60669269419</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>114478.8410216418</v>
+        <v>1648.59387611868</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>111204.3414088658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>220153.4956511128</v>
       </c>
     </row>
     <row r="4">
@@ -26433,7 +26435,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>43292.95496317923</v>
+        <v>623.4558263730705</v>
       </c>
       <c r="I4" t="n">
         <v>43292.95496317923</v>
@@ -26457,7 +26459,7 @@
         <v>43292.95496317923</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>8440.835347737742</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25797.18813722234</v>
+        <v>371.5017203577929</v>
       </c>
       <c r="I5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
     </row>
     <row r="6">
@@ -26537,31 +26539,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-93417.23095048827</v>
+        <v>-1345.288557208793</v>
       </c>
       <c r="I6" t="n">
-        <v>21061.61007115356</v>
+        <v>-90142.73133771219</v>
       </c>
       <c r="J6" t="n">
-        <v>21061.61007115355</v>
+        <v>21061.61007115354</v>
       </c>
       <c r="K6" t="n">
         <v>21061.61007115355</v>
       </c>
       <c r="L6" t="n">
+        <v>21061.61007115358</v>
+      </c>
+      <c r="M6" t="n">
+        <v>21061.61007115357</v>
+      </c>
+      <c r="N6" t="n">
         <v>21061.61007115355</v>
       </c>
-      <c r="M6" t="n">
-        <v>21061.61007115356</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21061.61007115358</v>
-      </c>
       <c r="O6" t="n">
-        <v>21061.61007115356</v>
+        <v>21061.61007115357</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-169938.2269261205</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>330.7713854632871</v>
       </c>
     </row>
     <row r="4">
@@ -26805,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>424.2958575201043</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="I4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>330.7713854632871</v>
       </c>
     </row>
     <row r="4">
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>424.2958575201043</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>6.110225663779488</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>407.152590549595</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36133,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>5.863347859182337</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>5.863347859182337</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="Q21" t="n">
-        <v>424.2958575201044</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>5.863347859182337</v>
       </c>
       <c r="M22" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>6.110225663779488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36367,10 +36369,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O23" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -36431,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36528,7 +36530,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -36595,10 +36597,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36671,25 +36673,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36829,14 +36831,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K29" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L29" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
@@ -36844,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O32" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -37163,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>298.8178948332411</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821539</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K35" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L35" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="N36" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L36" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37564,7 +37566,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9284720888814</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37935,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O43" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>195.310650850105</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-86090.19519383951</v>
+        <v>-95867.80328954611</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30622858.50295511</v>
+        <v>30133877.59168269</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15281170.21749553</v>
+        <v>15297430.9934074</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1973832.770522356</v>
+        <v>1987289.617613388</v>
       </c>
     </row>
     <row r="11">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.381886764656974</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>5.381886764656974</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>5.381886764656974</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>187.5499329784448</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>158.4069999341505</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H24" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>46.2617428421383</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>136.1194128884165</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>171.1767345352564</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>332.9207406456938</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>84.53123883647795</v>
+        <v>84.53123883647797</v>
       </c>
       <c r="H27" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>42.23871992329127</v>
+        <v>81.80700042666363</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2733,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>424.2958575201043</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2851,10 +2851,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>323.1063928328358</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>306.0087361885582</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>146.6325435271071</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>93.634724982124</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>396.0716691005148</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>43.25884065436964</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>8.041329829077398</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>241.4000435770619</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>158.8196214132816</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>123.775493226393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H36" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T36" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U36" t="n">
         <v>174.5731815300314</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>55.34298797346565</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>123.9914721956664</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>291.6115384509264</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E38" t="n">
-        <v>405.0038663550051</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>26.28298851191809</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>64.58216279976261</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>70.66580750658341</v>
+        <v>399.4680315207808</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>163.9235720099854</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>35.0560030479866</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>418.1856318563248</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>162.9730757900811</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>99.49322381230759</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113842</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>212.0456433386444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.81976830925504</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>34.44698820166514</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>49.60563018141188</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>126.0091317304331</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5263742585036</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4.176711216045566</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>105.4298291403255</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6161358490523</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.00465339788868</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>19.00465339788868</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>12.83270828295991</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.660763168031135</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.660763168031135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.660763168031135</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.537941460244052</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>6.537941460244052</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>6.537941460244052</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>6.537941460244052</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>6.537941460244052</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>6.537941460244052</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>12.34265584083457</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>18.39177924797626</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>19.00465339788868</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>12.83270828295991</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.660763168031135</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.293532433692873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.293532433692873</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>6.293532433692873</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>6.293532433692873</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>6.293532433692873</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6.293532433692873</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>6.293532433692873</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>12.34265584083457</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.39177924797626</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.83270828295991</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>12.83270828295991</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6.660763168031135</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.488818053102359</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>6.293532433692873</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>6.293532433692873</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>6.293532433692873</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>12.34265584083457</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>18.39177924797626</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>24.44090265511795</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>19.00465339788868</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>19.00465339788868</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.83270828295991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>890.8095618279922</v>
+        <v>223.3880453475122</v>
       </c>
       <c r="C23" t="n">
-        <v>890.8095618279922</v>
+        <v>223.3880453475122</v>
       </c>
       <c r="D23" t="n">
-        <v>890.8095618279922</v>
+        <v>223.3880453475122</v>
       </c>
       <c r="E23" t="n">
-        <v>462.2278875652606</v>
+        <v>223.3880453475122</v>
       </c>
       <c r="F23" t="n">
-        <v>34.36045797446834</v>
+        <v>223.3880453475122</v>
       </c>
       <c r="G23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -6022,19 +6022,19 @@
         <v>1477.116202953456</v>
       </c>
       <c r="U23" t="n">
-        <v>1317.1091323129</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V23" t="n">
-        <v>1317.1091323129</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W23" t="n">
-        <v>1317.1091323129</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X23" t="n">
-        <v>1317.1091323129</v>
+        <v>1057.973739532767</v>
       </c>
       <c r="Y23" t="n">
-        <v>1317.1091323129</v>
+        <v>649.68761583242</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>419.1124060907378</v>
+        <v>681.756833151444</v>
       </c>
       <c r="C25" t="n">
-        <v>246.5506945739627</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="D25" t="n">
-        <v>80.67270177548542</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E25" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F25" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G25" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H25" t="n">
         <v>33.94366860160834</v>
@@ -6147,22 +6147,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>761.8145120199619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M25" t="n">
-        <v>761.8145120199619</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N25" t="n">
-        <v>761.8145120199619</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O25" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P25" t="n">
         <v>1528.990655216085</v>
@@ -6171,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T25" t="n">
-        <v>1675.765608785789</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U25" t="n">
-        <v>1397.332608038895</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V25" t="n">
-        <v>1110.377099909325</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W25" t="n">
-        <v>838.3506954956167</v>
+        <v>1154.568258503923</v>
       </c>
       <c r="X25" t="n">
-        <v>838.3506954956167</v>
+        <v>909.1765038373358</v>
       </c>
       <c r="Y25" t="n">
-        <v>610.9310248097249</v>
+        <v>681.756833151444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>435.3414999783445</v>
+        <v>206.8494610614633</v>
       </c>
       <c r="C26" t="n">
-        <v>435.3414999783445</v>
+        <v>206.8494610614633</v>
       </c>
       <c r="D26" t="n">
-        <v>435.3414999783445</v>
+        <v>206.8494610614633</v>
       </c>
       <c r="E26" t="n">
-        <v>435.3414999783445</v>
+        <v>206.8494610614633</v>
       </c>
       <c r="F26" t="n">
-        <v>435.3414999783445</v>
+        <v>206.8494610614633</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>206.8494610614633</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6229,19 +6229,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L26" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6259,19 +6259,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V26" t="n">
-        <v>771.6250763881362</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W26" t="n">
-        <v>435.3414999783445</v>
+        <v>625.9919244821526</v>
       </c>
       <c r="X26" t="n">
-        <v>435.3414999783445</v>
+        <v>206.8494610614633</v>
       </c>
       <c r="Y26" t="n">
-        <v>435.3414999783445</v>
+        <v>206.8494610614633</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6305,22 +6305,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>978.9601488351361</v>
+        <v>422.0704516497129</v>
       </c>
       <c r="C28" t="n">
-        <v>806.3984373183611</v>
+        <v>422.0704516497129</v>
       </c>
       <c r="D28" t="n">
-        <v>640.5204445198838</v>
+        <v>422.0704516497129</v>
       </c>
       <c r="E28" t="n">
-        <v>470.762440770621</v>
+        <v>422.0704516497129</v>
       </c>
       <c r="F28" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G28" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
@@ -6396,13 +6396,13 @@
         <v>813.4916901053949</v>
       </c>
       <c r="N28" t="n">
-        <v>813.4916901053949</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="O28" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P28" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
@@ -6411,25 +6411,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.942061378414</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.942061378414</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V28" t="n">
-        <v>1250.986553248845</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W28" t="n">
-        <v>978.9601488351361</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X28" t="n">
-        <v>978.9601488351361</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y28" t="n">
-        <v>978.9601488351361</v>
+        <v>613.8890703687</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>891.5238064999317</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C29" t="n">
-        <v>462.9421322372</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D29" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E29" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F29" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G29" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H29" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
@@ -6466,19 +6466,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6490,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1217.893900270473</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V29" t="n">
-        <v>891.5238064999317</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W29" t="n">
-        <v>891.5238064999317</v>
+        <v>462.52534286434</v>
       </c>
       <c r="X29" t="n">
-        <v>891.5238064999317</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y29" t="n">
-        <v>891.5238064999317</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>372.0966550925557</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C31" t="n">
-        <v>199.5349435757807</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D31" t="n">
-        <v>199.5349435757807</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E31" t="n">
-        <v>199.5349435757807</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F31" t="n">
         <v>199.5349435757807</v>
@@ -6621,25 +6621,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N31" t="n">
-        <v>1146.964903885608</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O31" t="n">
-        <v>1566.63415311139</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P31" t="n">
-        <v>1566.63415311139</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6648,25 +6648,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="T31" t="n">
-        <v>1451.303983658873</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="U31" t="n">
-        <v>1172.870982911978</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="V31" t="n">
-        <v>885.9154747824084</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="W31" t="n">
-        <v>791.3349444974347</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="X31" t="n">
-        <v>791.3349444974347</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.9152738115429</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>323.0738231583921</v>
+        <v>862.5977358951631</v>
       </c>
       <c r="C32" t="n">
-        <v>323.0738231583921</v>
+        <v>862.5977358951631</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0738231583921</v>
+        <v>434.0160616324314</v>
       </c>
       <c r="E32" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F32" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G32" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6700,22 +6700,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L32" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M32" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N32" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T32" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U32" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V32" t="n">
-        <v>771.6250763881362</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W32" t="n">
-        <v>366.7696217991695</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X32" t="n">
-        <v>323.0738231583921</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y32" t="n">
-        <v>323.0738231583921</v>
+        <v>1288.897306380071</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>350.5528969494776</v>
+        <v>513.4376660667899</v>
       </c>
       <c r="C34" t="n">
-        <v>350.5528969494776</v>
+        <v>513.4376660667899</v>
       </c>
       <c r="D34" t="n">
-        <v>350.5528969494776</v>
+        <v>347.5596732683126</v>
       </c>
       <c r="E34" t="n">
-        <v>350.5528969494776</v>
+        <v>347.5596732683126</v>
       </c>
       <c r="F34" t="n">
-        <v>173.8458429112338</v>
+        <v>347.5596732683126</v>
       </c>
       <c r="G34" t="n">
-        <v>173.8458429112338</v>
+        <v>181.9683982941403</v>
       </c>
       <c r="H34" t="n">
-        <v>33.94366860160834</v>
+        <v>42.06622398451481</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>341.7616130750586</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M34" t="n">
-        <v>341.7616130750586</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N34" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6882,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1292.062614956869</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U34" t="n">
-        <v>1013.629614209975</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V34" t="n">
-        <v>769.7911863543566</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W34" t="n">
-        <v>769.7911863543566</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X34" t="n">
-        <v>769.7911863543566</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y34" t="n">
-        <v>542.3715156684648</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>461.8110981924006</v>
+        <v>1050.816632468548</v>
       </c>
       <c r="C35" t="n">
-        <v>461.8110981924006</v>
+        <v>1050.816632468548</v>
       </c>
       <c r="D35" t="n">
-        <v>461.8110981924006</v>
+        <v>1050.816632468548</v>
       </c>
       <c r="E35" t="n">
-        <v>461.8110981924006</v>
+        <v>622.2349582058164</v>
       </c>
       <c r="F35" t="n">
-        <v>33.94366860160834</v>
+        <v>194.3675286150241</v>
       </c>
       <c r="G35" t="n">
-        <v>33.94366860160834</v>
+        <v>194.3675286150241</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6937,19 +6937,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6964,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1354.309253581271</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V35" t="n">
-        <v>991.6923035150976</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W35" t="n">
-        <v>586.8368489261309</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X35" t="n">
-        <v>586.8368489261309</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y35" t="n">
-        <v>461.8110981924006</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="36">
@@ -7007,28 +7007,28 @@
         <v>161.064410519212</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J36" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K36" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
         <v>1159.957753041174</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>682.043550975749</v>
+        <v>742.0909015512234</v>
       </c>
       <c r="C37" t="n">
-        <v>509.4818394589739</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D37" t="n">
-        <v>343.6038466604966</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E37" t="n">
-        <v>173.8458429112338</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F37" t="n">
         <v>173.8458429112338</v>
@@ -7104,10 +7104,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N37" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S37" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T37" t="n">
-        <v>1391.280328775032</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U37" t="n">
-        <v>1391.280328775032</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V37" t="n">
-        <v>1391.280328775032</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="W37" t="n">
-        <v>1119.253924361324</v>
+        <v>987.4826562178109</v>
       </c>
       <c r="X37" t="n">
-        <v>873.8621696947362</v>
+        <v>742.0909015512234</v>
       </c>
       <c r="Y37" t="n">
-        <v>873.8621696947362</v>
+        <v>742.0909015512234</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>443.4552724744735</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="C38" t="n">
-        <v>443.4552724744735</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D38" t="n">
-        <v>443.4552724744735</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E38" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7177,49 +7177,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L38" t="n">
-        <v>857.0776321906106</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M38" t="n">
-        <v>857.0776321906106</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N38" t="n">
-        <v>857.0776321906106</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O38" t="n">
-        <v>857.0776321906106</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P38" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q38" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R38" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X38" t="n">
-        <v>1278.040966659728</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y38" t="n">
-        <v>869.7548429593813</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>745.110186124424</v>
+        <v>122.603617826933</v>
       </c>
       <c r="C40" t="n">
-        <v>572.5484746076489</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D40" t="n">
-        <v>572.5484746076489</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7904708583862</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F40" t="n">
-        <v>226.0834168201424</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G40" t="n">
-        <v>60.49214184597005</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H40" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L40" t="n">
-        <v>89.90148899448771</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M40" t="n">
-        <v>509.954387939391</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N40" t="n">
-        <v>930.0072868842942</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O40" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T40" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U40" t="n">
-        <v>1451.303983658873</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.348475529303</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W40" t="n">
-        <v>1164.348475529303</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X40" t="n">
-        <v>1164.348475529303</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y40" t="n">
-        <v>936.9288048434112</v>
+        <v>122.603617826933</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>507.1378928932079</v>
+        <v>866.0284050065428</v>
       </c>
       <c r="C41" t="n">
-        <v>507.1378928932079</v>
+        <v>437.4467307438111</v>
       </c>
       <c r="D41" t="n">
-        <v>507.1378928932079</v>
+        <v>437.4467307438111</v>
       </c>
       <c r="E41" t="n">
-        <v>507.1378928932079</v>
+        <v>437.4467307438111</v>
       </c>
       <c r="F41" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J41" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
         <v>687.9235674375537</v>
@@ -7447,16 +7447,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W41" t="n">
-        <v>1334.566480014244</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X41" t="n">
-        <v>915.4240165935545</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="Y41" t="n">
-        <v>507.1378928932079</v>
+        <v>1292.327975491451</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,22 +7478,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I42" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J42" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
         <v>1159.957753041174</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.7326516402958</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C43" t="n">
-        <v>535.1709401235207</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D43" t="n">
-        <v>369.2929473250434</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E43" t="n">
-        <v>199.5349435757807</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F43" t="n">
-        <v>199.5349435757807</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G43" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H43" t="n">
         <v>33.94366860160834</v>
@@ -7569,22 +7569,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M43" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N43" t="n">
-        <v>874.0494664914149</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O43" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
         <v>1528.990655216085</v>
@@ -7599,22 +7599,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1537.942061378414</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U43" t="n">
-        <v>1537.942061378414</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V43" t="n">
-        <v>1537.942061378414</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W43" t="n">
-        <v>1372.362695711762</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X43" t="n">
-        <v>1126.970941045175</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y43" t="n">
-        <v>899.5512703592829</v>
+        <v>173.8458429112338</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1042.893577318941</v>
+        <v>562.3093040634184</v>
       </c>
       <c r="C44" t="n">
-        <v>620.4838481711383</v>
+        <v>562.3093040634184</v>
       </c>
       <c r="D44" t="n">
-        <v>620.4838481711383</v>
+        <v>562.3093040634184</v>
       </c>
       <c r="E44" t="n">
-        <v>620.4838481711383</v>
+        <v>562.3093040634184</v>
       </c>
       <c r="F44" t="n">
-        <v>198.0741190233354</v>
+        <v>134.4418744726261</v>
       </c>
       <c r="G44" t="n">
-        <v>33.45485054850599</v>
+        <v>134.4418744726261</v>
       </c>
       <c r="H44" t="n">
-        <v>33.45485054850599</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524233</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>195.529221607333</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099032</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968689</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847205</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>1036.7784573317</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>1258.583260144776</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>1447.888527710259</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>1590.048899840627</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>1672.742527425299</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1619.698045908998</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1405.510527385115</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>1405.510527385115</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V44" t="n">
-        <v>1042.893577318941</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W44" t="n">
-        <v>1042.893577318941</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X44" t="n">
-        <v>1042.893577318941</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1042.893577318941</v>
+        <v>988.6088745483262</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.9672238352459</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>425.5107626718882</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
-        <v>330.4204738184415</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>236.3000591453952</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>152.9162207615568</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>68.24978812594554</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
-        <v>33.45485054850599</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>83.76937108752902</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>474.8738748284774</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>605.2485493631991</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>758.1833518442032</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>936.6510528709197</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>1119.842262896595</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>1287.426430762205</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>1421.927499955579</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>1511.8379027716</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>1672.742527425299</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.635830272358</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>1495.353879029496</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>1319.064612101715</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>1119.947094163714</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>934.6243398969084</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>779.7569041357883</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.2711249150091</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>214.3808048049776</v>
+        <v>652.494778272707</v>
       </c>
       <c r="C46" t="n">
-        <v>210.1619045867498</v>
+        <v>652.494778272707</v>
       </c>
       <c r="D46" t="n">
-        <v>210.1619045867498</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E46" t="n">
-        <v>210.1619045867498</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F46" t="n">
-        <v>33.45485054850599</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>161.7834697148434</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>355.1410140564474</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>769.144789594209</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>861.7096435212256</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>952.0735121144794</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>1035.539170576305</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>1449.542946114066</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>1667.182735391305</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1672.742527425299</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1672.742527425299</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T46" t="n">
-        <v>1429.437390511417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U46" t="n">
-        <v>1151.037253290152</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V46" t="n">
-        <v>1151.037253290152</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="W46" t="n">
-        <v>879.010848876444</v>
+        <v>1125.306203625186</v>
       </c>
       <c r="X46" t="n">
-        <v>633.6190942098565</v>
+        <v>879.9144489585988</v>
       </c>
       <c r="Y46" t="n">
-        <v>406.1994235239648</v>
+        <v>652.494778272707</v>
       </c>
     </row>
   </sheetData>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.863347859182337</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5.863347859182337</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.863347859182337</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9877,22 +9877,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9953,13 +9953,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10044,16 +10044,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>117.3049970300783</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10281,16 +10281,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>298.8178948332411</v>
       </c>
       <c r="Q31" t="n">
-        <v>131.8679565343714</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>310.9272166398487</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10752,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10825,10 +10825,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>16.8047027164539</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11457,10 +11457,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>126.0113343546819</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>329.5063656617905</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11469,10 +11469,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>346.0449349349548</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>416.6546880154017</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>425.4404613135204</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>423.3267717295083</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -23986,7 +23986,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>280.1286273474364</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24053,16 +24053,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D21" t="n">
-        <v>88.75749920025531</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E21" t="n">
-        <v>87.06898486253633</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F21" t="n">
-        <v>76.43977433622051</v>
+        <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>78.42101317269847</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H21" t="n">
         <v>41.31829566194965</v>
@@ -24132,10 +24132,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>158.108987206713</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>161.9501980479906</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -24189,13 +24189,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>263.9242536049144</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.0352483152533</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24214,19 +24214,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>209.833920084524</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>98.22307972200275</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24271,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>121.7986808696318</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.1867274811548</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>115.0621184759595</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>67.88615939738321</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>132.7012635745701</v>
+        <v>93.1329830711977</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>7.254829457195569</v>
@@ -24700,7 +24700,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>35.88438773267598</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>94.7981638545188</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>11.01641148787624</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>175.6714153874474</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>33.36532829277297</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -24934,7 +24934,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>371.6921981321128</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>79.73201990399401</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>42.68590947121194</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -25143,7 +25143,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -25162,7 +25162,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>127.4192315979343</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>280.4277692369502</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>115.4931064281417</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>119.4291797616629</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>142.1495096374845</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E38" t="n">
-        <v>24.43313103828262</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -25411,7 +25411,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>112.2201640546111</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>160.5633111792702</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25639,16 +25639,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>352.9229477883009</v>
+        <v>24.12072377410357</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>105.382568359586</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>190.0894709310462</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,16 +25876,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>5.403123438559476</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>233.0810430599699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>272.6207125031721</v>
+        <v>186.7456291989083</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5237009191198</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>166.6593831855618</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>58.78938373016706</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.1999654356588</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>69.83578017384922</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>147.2540575406698</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5378.454508946897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373481.4544631604</v>
+        <v>373481.4544631602</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>373481.4544631601</v>
+        <v>373481.4544631602</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373481.4544631604</v>
+        <v>373481.4544631602</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373481.4544631602</v>
+        <v>373481.4544631604</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373481.4544631602</v>
+        <v>373481.4544631604</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373481.4544631602</v>
+        <v>373481.4544631604</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342817.7629166711</v>
+        <v>373481.4544631604</v>
       </c>
     </row>
   </sheetData>
@@ -26331,22 +26331,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1298.26286564075</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="J2" t="n">
+        <v>90151.75317155513</v>
+      </c>
+      <c r="K2" t="n">
         <v>90151.75317155512</v>
       </c>
-      <c r="K2" t="n">
-        <v>90151.75317155513</v>
-      </c>
       <c r="L2" t="n">
-        <v>90151.75317155514</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="M2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="N2" t="n">
         <v>90151.75317155513</v>
@@ -26355,7 +26355,7 @@
         <v>90151.75317155513</v>
       </c>
       <c r="P2" t="n">
-        <v>91292.60669269419</v>
+        <v>90151.75317155513</v>
       </c>
     </row>
     <row r="3">
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1648.59387611868</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>111204.3414088658</v>
+        <v>112829.1787276037</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>220153.4956511128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26435,7 +26435,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>623.4558263730705</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>43292.95496317923</v>
@@ -26459,7 +26459,7 @@
         <v>43292.95496317923</v>
       </c>
       <c r="P4" t="n">
-        <v>8440.835347737742</v>
+        <v>43292.95496317923</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>371.5017203577929</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>25797.18813722234</v>
@@ -26511,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>32636.50261996421</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="H6" t="n">
-        <v>-1345.288557208793</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="I6" t="n">
-        <v>-90142.73133771219</v>
+        <v>-92506.92526836577</v>
       </c>
       <c r="J6" t="n">
-        <v>21061.61007115354</v>
+        <v>20322.25345923791</v>
       </c>
       <c r="K6" t="n">
-        <v>21061.61007115355</v>
+        <v>20322.25345923789</v>
       </c>
       <c r="L6" t="n">
-        <v>21061.61007115358</v>
+        <v>20322.25345923789</v>
       </c>
       <c r="M6" t="n">
-        <v>21061.61007115357</v>
+        <v>20322.25345923789</v>
       </c>
       <c r="N6" t="n">
-        <v>21061.61007115355</v>
+        <v>20322.2534592379</v>
       </c>
       <c r="O6" t="n">
-        <v>21061.61007115357</v>
+        <v>20322.25345923791</v>
       </c>
       <c r="P6" t="n">
-        <v>-169938.2269261205</v>
+        <v>20322.25345923791</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>330.7713854632871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26807,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>424.2958575201043</v>
@@ -26831,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>418.1856318563248</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>330.7713854632871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>418.1856318563248</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.329734212917736</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>13.61814050804377</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>51.26457824351107</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>112.8595291536268</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>169.1471783864346</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050158</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139916</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464441</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>224.0452553667434</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>191.2174419853368</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.5963354852203</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>30.30131837686294</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.820911517047393</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1063787370334189</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7114705272229195</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>6.871307460284513</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>24.49580543289438</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>67.21836239872329</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>114.8868877226589</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>154.4795984656607</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>180.2704050774915</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>185.041626288561</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>169.27693723799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>135.8596658518924</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.81858870305197</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.17358238319146</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>13.21525299468887</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2.867725502271328</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04680727152782367</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.596472990179698</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.30318713087041</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>17.9375695592222</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.17064040570465</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>69.29931649542308</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453439</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153211</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268057</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103589</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>72.14069692136999</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.94647920495635</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.81959463117078</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>10.39489747431346</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.548566412585982</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03253489037343811</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36138,13 +36138,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.863347859182337</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5.863347859182337</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.863347859182337</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -36293,13 +36293,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.110225663779488</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36597,22 +36597,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36673,13 +36673,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36764,16 +36764,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>117.3049970300783</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37001,16 +37001,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>298.8178948332411</v>
       </c>
       <c r="Q31" t="n">
-        <v>131.8679565343714</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>310.9272166398487</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37317,10 +37317,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37472,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37545,10 +37545,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85195676437968</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>112.8595291536269</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>169.1471783864346</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050158</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139916</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464443</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>224.0452553667433</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>191.2174419853368</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.5963354852202</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219394</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>50.82274801921519</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>395.0550542837863</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>131.6915904391128</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>154.4795984656607</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
-        <v>180.2704050774914</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>185.041626288561</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>169.2769372379901</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>135.8596658518925</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.818588703052</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>162.5299238926254</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>129.6248678447853</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>195.310650850105</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>418.1856318563248</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153209</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268052</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103589</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>418.1856318563248</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>219.8381709871101</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
-        <v>5.615951549488944</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
